--- a/doc/bizmap/비즈맵 개발 wbs.xlsx
+++ b/doc/bizmap/비즈맵 개발 wbs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>depth 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,52 @@
   </si>
   <si>
     <t>/bizmap/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bizmap/setCert
+/bizmap/getCert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자발송 10회 제한
+문자 발송 횟수가 초과했습니다 잠시후 다시 이용해 주세요(최근 10분내 10건 이상 발송 제한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석가능 업종 3개 이상만
+지역이 선택 안된경우
+ - 지역이 선택되지 않았습니다. 지역을 먼저 선택해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 미선택 된경우
+ - 전체 업종 표시
+지역 선택된 경우
+ - 선택 지역의 분석이 가능한 업종 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종 미선택된 경우
+ - 전체 지역 표시
+업종 선택된 경우
+ - 선택 업종의 분석이 가능한 지역 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 지역의 중심 반경 500m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 지역 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 업종 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 지역/업종의 42만 블록 점포수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,7 +959,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
@@ -923,10 +969,14 @@
         <v>35</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
@@ -947,7 +997,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
@@ -964,7 +1014,9 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -1060,7 +1112,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
@@ -1077,9 +1129,11 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
@@ -1096,7 +1150,9 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
@@ -1187,7 +1243,9 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
@@ -1219,7 +1277,9 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -1238,7 +1298,9 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
@@ -1257,7 +1319,9 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -1272,7 +1336,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="1" t="s">
@@ -1289,11 +1353,11 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1" t="s">
@@ -1310,7 +1374,9 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>

--- a/doc/bizmap/비즈맵 개발 wbs.xlsx
+++ b/doc/bizmap/비즈맵 개발 wbs.xlsx
@@ -194,16 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안에서 저장처리도 진행
- - 지역, 업종이 같은 데이터가 있으면 저장 처리 skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안에서 저장처리도 진행
- - 같은 데이터가 있으면 저장 처리 skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목록 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,31 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문자발송 10회 제한
-문자 발송 횟수가 초과했습니다 잠시후 다시 이용해 주세요(최근 10분내 10건 이상 발송 제한)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분석가능 업종 3개 이상만
-지역이 선택 안된경우
- - 지역이 선택되지 않았습니다. 지역을 먼저 선택해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 미선택 된경우
- - 전체 업종 표시
-지역 선택된 경우
- - 선택 지역의 분석이 가능한 업종 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업종 미선택된 경우
- - 전체 지역 표시
-업종 선택된 경우
- - 선택 업종의 분석이 가능한 지역 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택 지역의 중심 반경 500m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,6 +320,32 @@
   </si>
   <si>
     <t>선택 지역/업종의 42만 블록 점포수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안에서 저장처리도 진행 - 같은 데이터가 있으면 저장 처리 skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석가능 업종 3개 이상만 , 지역이 선택 안된경우 - 지역이 선택되지 않았습니다. 지역을 먼저 선택해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자발송 10회 제한, 문자 발송 횟수가 초과했습니다 잠시후 다시 이용해 주세요(최근 10분내 10건 이상 발송 제한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종 미선택된 경우 - 전체 지역 표시
+업종 선택된 경우 - 선택 업종의 분석이 가능한 지역 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 미선택 된경우 - 전체 업종 표시
+지역 선택된 경우 - 선택 지역의 분석이 가능한 업종 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안에서 저장처리도 진행 - 지역, 업종이 같은 데이터가 있으면 저장 처리 skip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -792,7 +783,7 @@
     <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="53.5" customWidth="1"/>
+    <col min="9" max="9" width="96.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -809,16 +800,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>41</v>
@@ -826,18 +817,18 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -959,7 +950,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
@@ -970,12 +961,12 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -988,16 +979,16 @@
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
@@ -1007,15 +998,15 @@
         <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1058,10 +1049,10 @@
         <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1103,7 +1094,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>40</v>
@@ -1112,7 +1103,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
@@ -1122,18 +1113,18 @@
         <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
@@ -1143,18 +1134,18 @@
         <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
@@ -1164,15 +1155,15 @@
         <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1185,10 +1176,10 @@
         <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1217,10 +1208,10 @@
         <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1236,15 +1227,15 @@
         <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1270,15 +1261,15 @@
         <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1291,15 +1282,15 @@
         <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1312,15 +1303,15 @@
         <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1346,18 +1337,18 @@
         <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1" t="s">
@@ -1367,15 +1358,15 @@
         <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1388,10 +1379,10 @@
         <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1420,10 +1411,10 @@
         <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1449,19 +1440,19 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>

--- a/doc/bizmap/비즈맵 개발 wbs.xlsx
+++ b/doc/bizmap/비즈맵 개발 wbs.xlsx
@@ -266,14 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/bizmap/videos/getVideos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/videos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/faq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,6 +338,14 @@
   </si>
   <si>
     <t>안에서 저장처리도 진행 - 지역, 업종이 같은 데이터가 있으면 저장 처리 skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bizmap/youTube/getYouTube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/youTube</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -820,15 +820,15 @@
         <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -961,12 +961,12 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -979,7 +979,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>49</v>
@@ -998,7 +998,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>48</v>
@@ -1006,7 +1006,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1049,7 +1049,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>52</v>
@@ -1094,7 +1094,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>40</v>
@@ -1113,7 +1113,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>49</v>
@@ -1121,7 +1121,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -1134,7 +1134,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>48</v>
@@ -1142,7 +1142,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>47</v>
@@ -1163,7 +1163,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1176,7 +1176,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>47</v>
@@ -1208,7 +1208,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>49</v>
@@ -1235,7 +1235,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1261,7 +1261,7 @@
         <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>49</v>
@@ -1269,7 +1269,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1282,7 +1282,7 @@
         <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>48</v>
@@ -1290,7 +1290,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1311,7 +1311,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1337,7 +1337,7 @@
         <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>49</v>
@@ -1345,7 +1345,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1411,10 +1411,10 @@
         <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1449,7 +1449,7 @@
         <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>59</v>

--- a/doc/bizmap/비즈맵 개발 wbs.xlsx
+++ b/doc/bizmap/비즈맵 개발 wbs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>depth 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분석페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본보고서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,18 +231,6 @@
   </si>
   <si>
     <t>/bizmap/subscribe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/flowpop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bizmap/flowpop/getFlowpop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/density</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -346,6 +330,26 @@
   </si>
   <si>
     <t>/youTube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/flowpop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bizmap/flowpop/getFlowpop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/density</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bizmap/rising/getRisingUpjong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,35 +804,35 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -854,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -869,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -884,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -899,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -914,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -929,10 +933,14 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -957,16 +965,16 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -976,13 +984,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -995,18 +1003,18 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1016,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1031,7 +1039,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1046,23 +1054,23 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1073,35 +1081,43 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
@@ -1110,39 +1126,39 @@
         <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1152,48 +1168,46 @@
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1202,220 +1216,216 @@
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>69</v>
+      <c r="I32" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+      <c r="A36" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1424,44 +1434,29 @@
       <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A36"/>
+    <mergeCell ref="A17:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/bizmap/비즈맵 개발 wbs.xlsx
+++ b/doc/bizmap/비즈맵 개발 wbs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>depth 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,18 @@
   </si>
   <si>
     <t>/bizmap/rising/getRisingUpjong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고병권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +502,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -996,7 +1011,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
@@ -1452,6 +1467,22 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/bizmap/비즈맵 개발 wbs.xlsx
+++ b/doc/bizmap/비즈맵 개발 wbs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>depth 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,26 @@
   </si>
   <si>
     <t>고병권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/email/send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용까지 보내야됨.
+     * title        : 제목
+     * fromName     : 보내는 사람 이름
+     * toAddr       : 받는사람 메일
+     * message      : 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 DB 연결하는것 까지는 처리됨. sms DB랑 연결 확인해야됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +809,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,8 +820,8 @@
     <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11" style="5" customWidth="1"/>
     <col min="9" max="9" width="96.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -849,8 +869,8 @@
       <c r="F2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -862,8 +882,8 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -877,8 +897,8 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -892,8 +912,8 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -907,8 +927,8 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -922,8 +942,8 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -937,8 +957,8 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -956,8 +976,8 @@
       <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -969,8 +989,8 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -986,8 +1006,8 @@
       <c r="F11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="2" t="s">
         <v>70</v>
       </c>
@@ -1007,8 +1027,8 @@
       <c r="F12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1026,8 +1046,8 @@
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="2" t="s">
         <v>69</v>
       </c>
@@ -1043,8 +1063,8 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1058,8 +1078,8 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1077,8 +1097,8 @@
       <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1090,8 +1110,8 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1109,8 +1129,8 @@
       <c r="F18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -1128,8 +1148,8 @@
       <c r="F19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="2" t="s">
         <v>71</v>
       </c>
@@ -1149,8 +1169,8 @@
       <c r="F20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="2" t="s">
         <v>72</v>
       </c>
@@ -1170,8 +1190,8 @@
       <c r="F21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="2" t="s">
         <v>73</v>
       </c>
@@ -1191,8 +1211,8 @@
       <c r="F22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1204,8 +1224,8 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1223,8 +1243,8 @@
       <c r="F24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1242,8 +1262,8 @@
       <c r="F25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="1" t="s">
         <v>64</v>
       </c>
@@ -1257,8 +1277,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1276,8 +1296,8 @@
       <c r="F27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="1" t="s">
         <v>65</v>
       </c>
@@ -1297,8 +1317,8 @@
       <c r="F28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="1" t="s">
         <v>66</v>
       </c>
@@ -1318,8 +1338,8 @@
       <c r="F29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
@@ -1333,8 +1353,8 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1352,8 +1372,8 @@
       <c r="F31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="1" t="s">
         <v>65</v>
       </c>
@@ -1373,8 +1393,8 @@
       <c r="F32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1394,8 +1414,8 @@
       <c r="F33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1407,8 +1427,8 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1426,8 +1446,8 @@
       <c r="F35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1441,8 +1461,8 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1464,24 +1484,46 @@
       <c r="F37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="9" t="s">
         <v>61</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/doc/bizmap/비즈맵 개발 wbs.xlsx
+++ b/doc/bizmap/비즈맵 개발 wbs.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="wbs" sheetId="2" r:id="rId1"/>
+    <sheet name="개발 진행상황" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
   <si>
     <t>depth 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,12 +385,118 @@
     <t>타 DB 연결하는것 까지는 처리됨. sms DB랑 연결 확인해야됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>3W</t>
+  </si>
+  <si>
+    <t>4W</t>
+  </si>
+  <si>
+    <t>단위테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보고서 살펴보기(링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bizmap/youTube/getYouTube/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블리싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 인증 (팝업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본보고서
+페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유동인구 출력 (42만 블록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,8 +521,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +539,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,6 +664,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,8 +676,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,26 +983,577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="B3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B15:B28"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="11" style="5" customWidth="1"/>
     <col min="9" max="9" width="96.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -854,8 +1582,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -873,8 +1601,8 @@
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -886,8 +1614,8 @@
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8"/>
       <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -901,8 +1629,8 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -916,8 +1644,8 @@
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8"/>
       <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -931,8 +1659,8 @@
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="8"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -946,8 +1674,8 @@
       <c r="H7" s="4"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -961,8 +1689,8 @@
       <c r="H8" s="4"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -980,8 +1708,8 @@
       <c r="H9" s="4"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
@@ -993,8 +1721,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:9" ht="33">
+      <c r="A11" s="8"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1012,8 +1740,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8"/>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -1031,8 +1759,8 @@
       <c r="H12" s="4"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1052,8 +1780,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1067,8 +1795,8 @@
       <c r="H14" s="4"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="8"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -1082,8 +1810,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -1101,8 +1829,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1114,8 +1842,8 @@
       <c r="H17" s="4"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8"/>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
@@ -1133,8 +1861,8 @@
       <c r="H18" s="4"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:9" ht="33">
+      <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -1154,8 +1882,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:9" ht="33">
+      <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
@@ -1175,8 +1903,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="8"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -1196,8 +1924,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="8"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
         <v>23</v>
@@ -1215,8 +1943,8 @@
       <c r="H22" s="4"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8"/>
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
@@ -1228,8 +1956,8 @@
       <c r="H23" s="4"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="8"/>
       <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -1247,8 +1975,8 @@
       <c r="H24" s="4"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="8"/>
       <c r="B25" s="4"/>
       <c r="C25" s="1" t="s">
         <v>25</v>
@@ -1268,8 +1996,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:9">
+      <c r="A26" s="8"/>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
@@ -1281,8 +2009,8 @@
       <c r="H26" s="4"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:9">
+      <c r="A27" s="8"/>
       <c r="B27" s="4"/>
       <c r="C27" s="1" t="s">
         <v>14</v>
@@ -1302,8 +2030,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:9">
+      <c r="A28" s="8"/>
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -1323,8 +2051,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:9">
+      <c r="A29" s="8"/>
       <c r="B29" s="4"/>
       <c r="C29" s="1" t="s">
         <v>27</v>
@@ -1344,8 +2072,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:9">
+      <c r="A30" s="8"/>
       <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1357,8 +2085,8 @@
       <c r="H30" s="4"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="8"/>
       <c r="B31" s="4"/>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -1378,8 +2106,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8"/>
       <c r="B32" s="4"/>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -1399,8 +2127,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1" t="s">
         <v>29</v>
@@ -1418,8 +2146,8 @@
       <c r="H33" s="4"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:9">
+      <c r="A34" s="8"/>
       <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +2159,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="8"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
@@ -1450,86 +2178,105 @@
       <c r="H35" s="4"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="36" spans="1:9">
+      <c r="A36" s="9"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="D39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="82.5">
+      <c r="A40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="2" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A35"/>
+    <mergeCell ref="A17:A36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
